--- a/excel_files/pol.xlsx
+++ b/excel_files/pol.xlsx
@@ -401,9 +401,6 @@
     <t>department</t>
   </si>
   <si>
-    <t>requirement</t>
-  </si>
-  <si>
     <t>upper</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>Political Science</t>
+  </si>
+  <si>
+    <t>major_requirement</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -784,16 +784,16 @@
         <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -816,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -977,7 +977,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1000,7 +1000,7 @@
         <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1023,7 +1023,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1046,7 +1046,7 @@
         <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1069,7 +1069,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1092,7 +1092,7 @@
         <v>120</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1115,7 +1115,7 @@
         <v>120</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,7 +1138,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1161,7 +1161,7 @@
         <v>120</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1184,7 +1184,7 @@
         <v>120</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1207,7 +1207,7 @@
         <v>120</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1230,7 +1230,7 @@
         <v>120</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1253,7 +1253,7 @@
         <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1299,7 +1299,7 @@
         <v>120</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1322,7 +1322,7 @@
         <v>120</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1345,7 +1345,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1368,7 +1368,7 @@
         <v>120</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1391,7 +1391,7 @@
         <v>120</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1414,7 +1414,7 @@
         <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1437,7 +1437,7 @@
         <v>120</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>120</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1483,7 +1483,7 @@
         <v>120</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1506,7 +1506,7 @@
         <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1529,7 +1529,7 @@
         <v>120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1552,7 +1552,7 @@
         <v>120</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1575,7 +1575,7 @@
         <v>120</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,7 +1598,7 @@
         <v>120</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1621,7 +1621,7 @@
         <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1644,7 +1644,7 @@
         <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1667,7 +1667,7 @@
         <v>120</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1690,7 +1690,7 @@
         <v>120</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1713,7 +1713,7 @@
         <v>120</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1736,7 +1736,7 @@
         <v>120</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1759,7 +1759,7 @@
         <v>120</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1782,7 +1782,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1805,7 +1805,7 @@
         <v>120</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1828,7 +1828,7 @@
         <v>120</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1851,7 +1851,7 @@
         <v>120</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1874,7 +1874,7 @@
         <v>120</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1897,7 +1897,7 @@
         <v>120</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1920,7 +1920,7 @@
         <v>120</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1943,7 +1943,7 @@
         <v>120</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1966,7 +1966,7 @@
         <v>120</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -1989,7 +1989,7 @@
         <v>120</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2012,7 +2012,7 @@
         <v>120</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2035,7 +2035,7 @@
         <v>120</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2058,7 +2058,7 @@
         <v>120</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2081,7 +2081,7 @@
         <v>120</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2104,7 +2104,7 @@
         <v>120</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2127,7 +2127,7 @@
         <v>120</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2150,7 +2150,7 @@
         <v>120</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
@@ -2173,7 +2173,7 @@
         <v>120</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
